--- a/t2a - filtros.xlsx
+++ b/t2a - filtros.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nunop\OneDrive\Documentos\GitHub\LABSFISICAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CD2E71-B61D-460B-B053-C6DA18564716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205E137F-5DFC-41DD-8D1E-05F802AFB747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{900CCD27-72D6-4426-9D75-993E0DDD4AFC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Passa-Baixo" sheetId="3" r:id="rId1"/>
+    <sheet name="Passa-Alto" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="36">
   <si>
     <t>f (Hz)</t>
   </si>
@@ -330,19 +331,108 @@
   <si>
     <t>C (F)</t>
   </si>
+  <si>
+    <t>f^2</t>
+  </si>
+  <si>
+    <t>1/(Ac^2)</t>
+  </si>
+  <si>
+    <t>Fit</t>
+  </si>
+  <si>
+    <t>Resíduos</t>
+  </si>
+  <si>
+    <t>Análise Estatística</t>
+  </si>
+  <si>
+    <t>u (m)</t>
+  </si>
+  <si>
+    <t>sy</t>
+  </si>
+  <si>
+    <t>u (b)</t>
+  </si>
+  <si>
+    <t>Ordenada na origem (b)</t>
+  </si>
+  <si>
+    <t>Declive (m)</t>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>"+sy"</t>
+  </si>
+  <si>
+    <t>"-sy"</t>
+  </si>
+  <si>
+    <t>u [1/(Ac^2)]</t>
+  </si>
+  <si>
+    <t>td</t>
+  </si>
+  <si>
+    <t>u (td)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>α</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (td) (rads?)</t>
+    </r>
+  </si>
+  <si>
+    <t>u (f^2)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -359,19 +449,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <vertAlign val="superscript"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -384,8 +483,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -408,11 +531,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -425,6 +594,36 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,6 +639,5702 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Ac[log(f)]</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Passa-Baixo'!$E$3:$E$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Passa-Baixo'!$E$3:$E$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Passa-Baixo'!$K$3:$K$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Passa-Baixo'!$K$3:$K$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Passa-Baixo'!$D$3:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Passa-Baixo'!$J$3:$J$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A291-4F39-986F-5034BBDFDBD0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2037650352"/>
+        <c:axId val="2037653264"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2037650352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>log(f) (Hz)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2037653264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2037653264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>A</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="-25000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>c</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t> (s.u.)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.9444444444444445E-2"/>
+              <c:y val="0.39937882764654409"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2037650352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Linearização</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Linearização</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Passa-Baixo'!$W$3:$W$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Passa-Baixo'!$W$3:$W$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Passa-Baixo'!$U$3:$U$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Passa-Baixo'!$U$3:$U$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Passa-Baixo'!$T$3:$T$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Passa-Baixo'!$V$3:$V$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D157-4A08-A68E-22CA30270417}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2037650352"/>
+        <c:axId val="2037653264"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2037650352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>f^2</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2037653264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2037653264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>1/(Ac^2)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.9444444444444445E-2"/>
+              <c:y val="0.39937882764654409"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2037650352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="el-GR" b="0"/>
+              <a:t>α</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="0" baseline="-25000"/>
+              <a:t>c </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="0" baseline="0"/>
+              <a:t>(f)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>αc (f)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Passa-Baixo'!$S$3:$S$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Passa-Baixo'!$S$3:$S$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Passa-Baixo'!$C$3:$C$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Passa-Baixo'!$C$3:$C$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Passa-Baixo'!$R$3:$R$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Passa-Baixo'!$B$3:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1EBF-469D-9CFD-413360ADB997}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2037650352"/>
+        <c:axId val="2037653264"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2037650352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>f (Hz)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2037653264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2037653264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="1400"/>
+                  <a:t>α</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="-25000"/>
+                  <a:t>c </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                  <a:t>(rads)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400" baseline="-25000"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.9444444444444445E-2"/>
+              <c:y val="0.39937882764654409"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2037650352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Ac[log(f)]</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Passa-Alto'!$E$3:$E$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Passa-Alto'!$E$3:$E$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Passa-Alto'!$K$3:$K$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Passa-Alto'!$K$3:$K$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Passa-Alto'!$D$3:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Passa-Alto'!$J$3:$J$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0B9F-4CB0-9DBB-A81C327ADC31}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2037650352"/>
+        <c:axId val="2037653264"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2037650352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>log(f) (Hz)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2037653264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2037653264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>A</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="-25000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>c</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t> (s.u.)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.9444444444444445E-2"/>
+              <c:y val="0.39937882764654409"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2037650352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Linearização</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Linearização</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Passa-Alto'!$W$3:$W$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Passa-Alto'!$W$3:$W$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Passa-Alto'!$U$3:$U$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Passa-Alto'!$U$3:$U$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Passa-Alto'!$T$3:$T$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Passa-Alto'!$V$3:$V$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CAA1-44E9-9B03-6C9A2129D422}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2037650352"/>
+        <c:axId val="2037653264"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2037650352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>f^2</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2037653264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2037653264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>1/(Ac^2)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.9444444444444445E-2"/>
+              <c:y val="0.39937882764654409"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2037650352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="el-GR" b="0"/>
+              <a:t>α</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="0" baseline="-25000"/>
+              <a:t>c </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="0" baseline="0"/>
+              <a:t>(f)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>αc (f)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Passa-Alto'!$S$3:$S$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Passa-Alto'!$S$3:$S$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Passa-Alto'!$C$3:$C$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Passa-Alto'!$C$3:$C$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Passa-Alto'!$R$3:$R$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Passa-Alto'!$B$3:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9D2B-4F06-B694-094D50244794}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2037650352"/>
+        <c:axId val="2037653264"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2037650352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>f (Hz)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2037653264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2037653264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="1400"/>
+                  <a:t>α</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="-25000"/>
+                  <a:t>c </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                  <a:t>(rads)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400" baseline="-25000"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.9444444444444445E-2"/>
+              <c:y val="0.39937882764654409"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2037650352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4481</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>4482</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>678872</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>179293</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA1A782B-F323-469A-A058-98AACDC9DA03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>13855</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>166255</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>27710</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>160957</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{423305C4-028C-42FB-B997-47C35AF4FF48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>166254</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>526473</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>160956</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1831960E-30A2-4F18-ADBF-D0D213DCB616}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4481</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>4482</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>678872</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>179293</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBA79620-A5FC-4D51-B5A7-2E982258CE11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>13855</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>166255</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>27710</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>160957</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2872843-E19B-434D-A3EE-D6ED8381E5A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>166254</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>526473</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>160956</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55DDEF75-DBA3-4CA5-A513-98D40108D059}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -738,21 +6633,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F40F786-2E68-489D-8CF3-9A05D28DB103}">
-  <dimension ref="A2:S22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AF1BF9E-75A3-4CCC-9D0A-CF86AAAEB0C8}">
+  <dimension ref="A2:AB45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AI11" sqref="AI11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.33203125" customWidth="1"/>
     <col min="12" max="12" width="10" customWidth="1"/>
-    <col min="16" max="16" width="9.5546875" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" customWidth="1"/>
+    <col min="15" max="15" width="8.5546875" customWidth="1"/>
+    <col min="16" max="16" width="10.33203125" customWidth="1"/>
+    <col min="17" max="17" width="13.77734375" customWidth="1"/>
+    <col min="19" max="19" width="10.6640625" customWidth="1"/>
+    <col min="20" max="20" width="10.5546875" customWidth="1"/>
+    <col min="21" max="21" width="8.109375" customWidth="1"/>
+    <col min="23" max="23" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
@@ -796,18 +6698,51 @@
         <v>10</v>
       </c>
       <c r="O2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="T2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
         <v>30</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
       <c r="D3" s="2" t="e">
         <f>LOG(B3)</f>
         <v>#NUM!</v>
@@ -816,10 +6751,10 @@
         <f>SQRT(((1/B3)*C3)^2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8"/>
       <c r="J3" s="2" t="e">
         <f>H3/F3</f>
         <v>#DIV/0!</v>
@@ -829,23 +6764,65 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L3" s="2">
-        <f>1/(SQRT(1+(2*PI()*B3*S4*S5)^2))</f>
+        <f>1/(SQRT(1+(2*PI()*B3*B24*B25)^2))</f>
         <v>1</v>
       </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2">
+      <c r="M3" s="7"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="9">
+        <f>2*PI()*B3*O3</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="2">
         <f>M3*PI()/180</f>
         <v>0</v>
       </c>
-      <c r="P3" s="2"/>
+      <c r="S3" s="2">
+        <f>N3*PI()/180</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="2">
+        <f>B3^2</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="2">
+        <f>SQRT((2*B3*C3)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="V3" s="2" t="e">
+        <f>1/(J3^2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W3" s="2" t="e">
+        <f>SQRT((-(2/(J3^3))*K3)^2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="2" t="e">
+        <f>$Q$43*T3+$R$43</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z3" s="2" t="e">
+        <f>V3-Y3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA3" s="2" t="e">
+        <f>Y3+$R$45</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB3" s="2" t="e">
+        <f>Y3-$R$45</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
         <v>50</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8"/>
       <c r="D4" s="2" t="e">
         <f t="shared" ref="D4:D22" si="0">LOG(B4)</f>
         <v>#NUM!</v>
@@ -854,10 +6831,10 @@
         <f t="shared" ref="E4:E22" si="1">SQRT(((1/B4)*C4)^2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8"/>
       <c r="J4" s="2" t="e">
         <f t="shared" ref="J4:J22" si="2">H4/F4</f>
         <v>#DIV/0!</v>
@@ -867,29 +6844,65 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L4" s="2">
-        <f t="shared" ref="L4:L22" si="4">1/(SQRT(1+(2*PI()*B4*S5*S6)^2))</f>
+        <f>1/(SQRT(1+(2*PI()*B4*B25*B26)^2))</f>
         <v>1</v>
       </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2">
-        <f t="shared" ref="O4:O22" si="5">M4*PI()/180</f>
-        <v>0</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="R4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="S4" s="1">
-        <v>0</v>
+      <c r="M4" s="7"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="9">
+        <f t="shared" ref="Q4:Q22" si="4">2*PI()*B4*O4</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="2">
+        <f>M4*PI()/180</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="2">
+        <f t="shared" ref="S4:S22" si="5">N4*PI()/180</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="2">
+        <f>B4^2</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="2">
+        <f t="shared" ref="U4:U22" si="6">SQRT((2*B4*C4)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="V4" s="2" t="e">
+        <f>1/(J4^2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W4" s="2" t="e">
+        <f t="shared" ref="W4:W22" si="7">SQRT((-(2/(J4^3))*K4)^2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="2" t="e">
+        <f>$Q$43*T4+$R$43</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z4" s="2" t="e">
+        <f t="shared" ref="Z4:Z22" si="8">V4-Y4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA4" s="2" t="e">
+        <f>Y4+$R$45</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB4" s="2" t="e">
+        <f>Y4-$R$45</f>
+        <v>#VALUE!</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
         <v>100</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
       <c r="D5" s="2" t="e">
         <f t="shared" si="0"/>
         <v>#NUM!</v>
@@ -898,10 +6911,10 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8"/>
       <c r="J5" s="2" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -911,29 +6924,65 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L5" s="2">
+        <f>1/(SQRT(1+(2*PI()*B5*B26*X7)^2))</f>
+        <v>1</v>
+      </c>
+      <c r="M5" s="7"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="9">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2">
+        <f>M5*PI()/180</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P5" s="2"/>
-      <c r="R5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="S5" s="1">
-        <v>0</v>
+      <c r="T5" s="2">
+        <f>B5^2</f>
+        <v>0</v>
+      </c>
+      <c r="U5" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V5" s="2" t="e">
+        <f>1/(J5^2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W5" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="2" t="e">
+        <f>$Q$43*T5+$R$43</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z5" s="2" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA5" s="2" t="e">
+        <f>Y5+$R$45</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB5" s="2" t="e">
+        <f>Y5-$R$45</f>
+        <v>#VALUE!</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
         <v>150</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
       <c r="D6" s="2" t="e">
         <f t="shared" si="0"/>
         <v>#NUM!</v>
@@ -942,10 +6991,10 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8"/>
       <c r="J6" s="2" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -955,23 +7004,65 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L6" s="2">
+        <f>1/(SQRT(1+(2*PI()*B6*X7*X8)^2))</f>
+        <v>1</v>
+      </c>
+      <c r="M6" s="7"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="9">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="R6" s="2">
+        <f>M6*PI()/180</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P6" s="2"/>
+      <c r="T6" s="2">
+        <f>B6^2</f>
+        <v>0</v>
+      </c>
+      <c r="U6" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V6" s="2" t="e">
+        <f>1/(J6^2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W6" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="2" t="e">
+        <f>$Q$43*T6+$R$43</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z6" s="2" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA6" s="2" t="e">
+        <f>Y6+$R$45</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB6" s="2" t="e">
+        <f>Y6-$R$45</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
         <v>160</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
       <c r="D7" s="2" t="e">
         <f t="shared" si="0"/>
         <v>#NUM!</v>
@@ -980,10 +7071,10 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8"/>
       <c r="J7" s="2" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -993,23 +7084,65 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L7" s="2">
+        <f>1/(SQRT(1+(2*PI()*B7*X8*X9)^2))</f>
+        <v>1</v>
+      </c>
+      <c r="M7" s="7"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="9">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+      <c r="R7" s="2">
+        <f>M7*PI()/180</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P7" s="2"/>
+      <c r="T7" s="2">
+        <f>B7^2</f>
+        <v>0</v>
+      </c>
+      <c r="U7" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V7" s="2" t="e">
+        <f>1/(J7^2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W7" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="2" t="e">
+        <f>$Q$43*T7+$R$43</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z7" s="2" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA7" s="2" t="e">
+        <f>Y7+$R$45</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB7" s="2" t="e">
+        <f>Y7-$R$45</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
         <v>200</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
       <c r="D8" s="2" t="e">
         <f t="shared" si="0"/>
         <v>#NUM!</v>
@@ -1018,10 +7151,10 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8"/>
       <c r="J8" s="2" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -1031,23 +7164,65 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L8" s="2">
+        <f>1/(SQRT(1+(2*PI()*B8*X9*X10)^2))</f>
+        <v>1</v>
+      </c>
+      <c r="M8" s="7"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="9">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="R8" s="2">
+        <f>M8*PI()/180</f>
+        <v>0</v>
+      </c>
+      <c r="S8" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P8" s="2"/>
+      <c r="T8" s="2">
+        <f>B8^2</f>
+        <v>0</v>
+      </c>
+      <c r="U8" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V8" s="2" t="e">
+        <f>1/(J8^2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W8" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="2" t="e">
+        <f>$Q$43*T8+$R$43</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z8" s="2" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA8" s="2" t="e">
+        <f>Y8+$R$45</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB8" s="2" t="e">
+        <f>Y8-$R$45</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
         <v>250</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
       <c r="D9" s="2" t="e">
         <f t="shared" si="0"/>
         <v>#NUM!</v>
@@ -1056,10 +7231,10 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8"/>
       <c r="J9" s="2" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -1069,23 +7244,65 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L9" s="2">
+        <f>1/(SQRT(1+(2*PI()*B9*X10*X11)^2))</f>
+        <v>1</v>
+      </c>
+      <c r="M9" s="7"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="9">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+      <c r="R9" s="2">
+        <f>M9*PI()/180</f>
+        <v>0</v>
+      </c>
+      <c r="S9" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P9" s="2"/>
+      <c r="T9" s="2">
+        <f>B9^2</f>
+        <v>0</v>
+      </c>
+      <c r="U9" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V9" s="2" t="e">
+        <f>1/(J9^2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W9" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="2" t="e">
+        <f>$Q$43*T9+$R$43</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z9" s="2" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA9" s="2" t="e">
+        <f>Y9+$R$45</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB9" s="2" t="e">
+        <f>Y9-$R$45</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
         <v>300</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
       <c r="D10" s="2" t="e">
         <f t="shared" si="0"/>
         <v>#NUM!</v>
@@ -1094,10 +7311,10 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8"/>
       <c r="J10" s="2" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -1107,23 +7324,65 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L10" s="2">
+        <f>1/(SQRT(1+(2*PI()*B10*X11*X12)^2))</f>
+        <v>1</v>
+      </c>
+      <c r="M10" s="7"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="9">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2">
+        <v>0</v>
+      </c>
+      <c r="R10" s="2">
+        <f>M10*PI()/180</f>
+        <v>0</v>
+      </c>
+      <c r="S10" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P10" s="2"/>
+      <c r="T10" s="2">
+        <f>B10^2</f>
+        <v>0</v>
+      </c>
+      <c r="U10" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V10" s="2" t="e">
+        <f>1/(J10^2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W10" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="2" t="e">
+        <f>$Q$43*T10+$R$43</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z10" s="2" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA10" s="2" t="e">
+        <f>Y10+$R$45</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB10" s="2" t="e">
+        <f>Y10-$R$45</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
         <v>400</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
       <c r="D11" s="2" t="e">
         <f t="shared" si="0"/>
         <v>#NUM!</v>
@@ -1132,10 +7391,10 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8"/>
       <c r="J11" s="2" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -1145,23 +7404,65 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L11" s="2">
+        <f>1/(SQRT(1+(2*PI()*B11*X12*X13)^2))</f>
+        <v>1</v>
+      </c>
+      <c r="M11" s="7"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="9">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+      <c r="R11" s="2">
+        <f>M11*PI()/180</f>
+        <v>0</v>
+      </c>
+      <c r="S11" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P11" s="2"/>
+      <c r="T11" s="2">
+        <f>B11^2</f>
+        <v>0</v>
+      </c>
+      <c r="U11" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="2" t="e">
+        <f>1/(J11^2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W11" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="2" t="e">
+        <f>$Q$43*T11+$R$43</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z11" s="2" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA11" s="2" t="e">
+        <f>Y11+$R$45</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB11" s="2" t="e">
+        <f>Y11-$R$45</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
         <v>500</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
       <c r="D12" s="2" t="e">
         <f t="shared" si="0"/>
         <v>#NUM!</v>
@@ -1170,10 +7471,10 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8"/>
       <c r="J12" s="2" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -1183,23 +7484,65 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L12" s="2">
+        <f>1/(SQRT(1+(2*PI()*B12*X13*X14)^2))</f>
+        <v>1</v>
+      </c>
+      <c r="M12" s="7"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="9">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="R12" s="2">
+        <f>M12*PI()/180</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P12" s="2"/>
+      <c r="T12" s="2">
+        <f>B12^2</f>
+        <v>0</v>
+      </c>
+      <c r="U12" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="2" t="e">
+        <f>1/(J12^2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W12" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="2" t="e">
+        <f>$Q$43*T12+$R$43</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z12" s="2" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA12" s="2" t="e">
+        <f>Y12+$R$45</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB12" s="2" t="e">
+        <f>Y12-$R$45</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
         <v>750</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
       <c r="D13" s="2" t="e">
         <f t="shared" si="0"/>
         <v>#NUM!</v>
@@ -1208,10 +7551,10 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8"/>
       <c r="J13" s="2" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -1221,23 +7564,65 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L13" s="2">
+        <f>1/(SQRT(1+(2*PI()*B13*X14*X15)^2))</f>
+        <v>1</v>
+      </c>
+      <c r="M13" s="7"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="9">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2">
+        <v>0</v>
+      </c>
+      <c r="R13" s="2">
+        <f>M13*PI()/180</f>
+        <v>0</v>
+      </c>
+      <c r="S13" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P13" s="2"/>
+      <c r="T13" s="2">
+        <f>B13^2</f>
+        <v>0</v>
+      </c>
+      <c r="U13" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="2" t="e">
+        <f>1/(J13^2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W13" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="2" t="e">
+        <f>$Q$43*T13+$R$43</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z13" s="2" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA13" s="2" t="e">
+        <f>Y13+$R$45</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB13" s="2" t="e">
+        <f>Y13-$R$45</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
         <v>1000</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
       <c r="D14" s="2" t="e">
         <f t="shared" si="0"/>
         <v>#NUM!</v>
@@ -1246,10 +7631,10 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8"/>
       <c r="J14" s="2" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -1259,23 +7644,65 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L14" s="2">
+        <f>1/(SQRT(1+(2*PI()*B14*X15*X16)^2))</f>
+        <v>1</v>
+      </c>
+      <c r="M14" s="7"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="9">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2">
+        <v>0</v>
+      </c>
+      <c r="R14" s="2">
+        <f>M14*PI()/180</f>
+        <v>0</v>
+      </c>
+      <c r="S14" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P14" s="2"/>
+      <c r="T14" s="2">
+        <f>B14^2</f>
+        <v>0</v>
+      </c>
+      <c r="U14" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="2" t="e">
+        <f>1/(J14^2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W14" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="2" t="e">
+        <f>$Q$43*T14+$R$43</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z14" s="2" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA14" s="2" t="e">
+        <f>Y14+$R$45</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB14" s="2" t="e">
+        <f>Y14-$R$45</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
         <v>2000</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
       <c r="D15" s="2" t="e">
         <f t="shared" si="0"/>
         <v>#NUM!</v>
@@ -1284,10 +7711,10 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8"/>
       <c r="J15" s="2" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -1297,23 +7724,65 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L15" s="2">
+        <f>1/(SQRT(1+(2*PI()*B15*X16*X17)^2))</f>
+        <v>1</v>
+      </c>
+      <c r="M15" s="7"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="9">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2">
+        <v>0</v>
+      </c>
+      <c r="R15" s="2">
+        <f>M15*PI()/180</f>
+        <v>0</v>
+      </c>
+      <c r="S15" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P15" s="2"/>
+      <c r="T15" s="2">
+        <f>B15^2</f>
+        <v>0</v>
+      </c>
+      <c r="U15" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V15" s="2" t="e">
+        <f>1/(J15^2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W15" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="2" t="e">
+        <f>$Q$43*T15+$R$43</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z15" s="2" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA15" s="2" t="e">
+        <f>Y15+$R$45</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB15" s="2" t="e">
+        <f>Y15-$R$45</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
         <v>5000</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
       <c r="D16" s="2" t="e">
         <f t="shared" si="0"/>
         <v>#NUM!</v>
@@ -1322,10 +7791,10 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8"/>
       <c r="J16" s="2" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -1335,23 +7804,65 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L16" s="2">
+        <f>1/(SQRT(1+(2*PI()*B16*X17*X18)^2))</f>
+        <v>1</v>
+      </c>
+      <c r="M16" s="7"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="9">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2">
+        <v>0</v>
+      </c>
+      <c r="R16" s="2">
+        <f>M16*PI()/180</f>
+        <v>0</v>
+      </c>
+      <c r="S16" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P16" s="2"/>
+      <c r="T16" s="2">
+        <f>B16^2</f>
+        <v>0</v>
+      </c>
+      <c r="U16" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V16" s="2" t="e">
+        <f>1/(J16^2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W16" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="2" t="e">
+        <f>$Q$43*T16+$R$43</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z16" s="2" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA16" s="2" t="e">
+        <f>Y16+$R$45</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB16" s="2" t="e">
+        <f>Y16-$R$45</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
         <v>7500</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
       <c r="D17" s="2" t="e">
         <f t="shared" si="0"/>
         <v>#NUM!</v>
@@ -1360,10 +7871,10 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="8"/>
       <c r="J17" s="2" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -1373,23 +7884,65 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L17" s="2">
+        <f>1/(SQRT(1+(2*PI()*B17*X18*X19)^2))</f>
+        <v>1</v>
+      </c>
+      <c r="M17" s="7"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="9">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2">
+        <v>0</v>
+      </c>
+      <c r="R17" s="2">
+        <f>M17*PI()/180</f>
+        <v>0</v>
+      </c>
+      <c r="S17" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P17" s="2"/>
+      <c r="T17" s="2">
+        <f>B17^2</f>
+        <v>0</v>
+      </c>
+      <c r="U17" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V17" s="2" t="e">
+        <f>1/(J17^2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W17" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="2" t="e">
+        <f>$Q$43*T17+$R$43</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z17" s="2" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA17" s="2" t="e">
+        <f>Y17+$R$45</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB17" s="2" t="e">
+        <f>Y17-$R$45</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
         <v>10000</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
       <c r="D18" s="2" t="e">
         <f t="shared" si="0"/>
         <v>#NUM!</v>
@@ -1398,10 +7951,10 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8"/>
       <c r="J18" s="2" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -1411,23 +7964,65 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L18" s="2">
+        <f>1/(SQRT(1+(2*PI()*B18*X19*X20)^2))</f>
+        <v>1</v>
+      </c>
+      <c r="M18" s="7"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="9">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2">
+        <v>0</v>
+      </c>
+      <c r="R18" s="2">
+        <f>M18*PI()/180</f>
+        <v>0</v>
+      </c>
+      <c r="S18" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P18" s="2"/>
+      <c r="T18" s="2">
+        <f>B18^2</f>
+        <v>0</v>
+      </c>
+      <c r="U18" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V18" s="2" t="e">
+        <f>1/(J18^2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W18" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="2" t="e">
+        <f>$Q$43*T18+$R$43</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z18" s="2" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA18" s="2" t="e">
+        <f>Y18+$R$45</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB18" s="2" t="e">
+        <f>Y18-$R$45</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
         <v>12500</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
       <c r="D19" s="2" t="e">
         <f t="shared" si="0"/>
         <v>#NUM!</v>
@@ -1436,10 +8031,10 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="8"/>
       <c r="J19" s="2" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -1449,23 +8044,65 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L19" s="2">
+        <f>1/(SQRT(1+(2*PI()*B19*X20*X21)^2))</f>
+        <v>1</v>
+      </c>
+      <c r="M19" s="7"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="9">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2">
+        <v>0</v>
+      </c>
+      <c r="R19" s="2">
+        <f>M19*PI()/180</f>
+        <v>0</v>
+      </c>
+      <c r="S19" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P19" s="2"/>
+      <c r="T19" s="2">
+        <f>B19^2</f>
+        <v>0</v>
+      </c>
+      <c r="U19" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V19" s="2" t="e">
+        <f>1/(J19^2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W19" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="2" t="e">
+        <f>$Q$43*T19+$R$43</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z19" s="2" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA19" s="2" t="e">
+        <f>Y19+$R$45</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB19" s="2" t="e">
+        <f>Y19-$R$45</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
         <v>15000</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
       <c r="D20" s="2" t="e">
         <f t="shared" si="0"/>
         <v>#NUM!</v>
@@ -1474,10 +8111,10 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8"/>
       <c r="J20" s="2" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -1487,23 +8124,65 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L20" s="2">
+        <f>1/(SQRT(1+(2*PI()*B20*X21*X22)^2))</f>
+        <v>1</v>
+      </c>
+      <c r="M20" s="7"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="9">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2">
+        <v>0</v>
+      </c>
+      <c r="R20" s="2">
+        <f>M20*PI()/180</f>
+        <v>0</v>
+      </c>
+      <c r="S20" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P20" s="2"/>
+      <c r="T20" s="2">
+        <f>B20^2</f>
+        <v>0</v>
+      </c>
+      <c r="U20" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V20" s="2" t="e">
+        <f>1/(J20^2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W20" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="2" t="e">
+        <f>$Q$43*T20+$R$43</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z20" s="2" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA20" s="2" t="e">
+        <f>Y20+$R$45</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB20" s="2" t="e">
+        <f>Y20-$R$45</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
         <v>17000</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
       <c r="D21" s="2" t="e">
         <f t="shared" si="0"/>
         <v>#NUM!</v>
@@ -1512,10 +8191,10 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8"/>
       <c r="J21" s="2" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -1525,23 +8204,65 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L21" s="2">
+        <f>1/(SQRT(1+(2*PI()*B21*X22*X23)^2))</f>
+        <v>1</v>
+      </c>
+      <c r="M21" s="7"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="9">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2">
+        <v>0</v>
+      </c>
+      <c r="R21" s="2">
+        <f>M21*PI()/180</f>
+        <v>0</v>
+      </c>
+      <c r="S21" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P21" s="2"/>
+      <c r="T21" s="2">
+        <f>B21^2</f>
+        <v>0</v>
+      </c>
+      <c r="U21" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V21" s="2" t="e">
+        <f>1/(J21^2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W21" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="2" t="e">
+        <f>$Q$43*T21+$R$43</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z21" s="2" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA21" s="2" t="e">
+        <f>Y21+$R$45</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB21" s="2" t="e">
+        <f>Y21-$R$45</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
         <v>19000</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
       <c r="D22" s="2" t="e">
         <f t="shared" si="0"/>
         <v>#NUM!</v>
@@ -1550,10 +8271,10 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8"/>
       <c r="J22" s="2" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -1563,20 +8284,1928 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L22" s="2">
+        <f>1/(SQRT(1+(2*PI()*B22*X23*X24)^2))</f>
+        <v>1</v>
+      </c>
+      <c r="M22" s="7"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="9">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2">
+        <v>0</v>
+      </c>
+      <c r="R22" s="2">
+        <f>M22*PI()/180</f>
+        <v>0</v>
+      </c>
+      <c r="S22" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P22" s="2"/>
+      <c r="T22" s="2">
+        <f>B22^2</f>
+        <v>0</v>
+      </c>
+      <c r="U22" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V22" s="2" t="e">
+        <f>1/(J22^2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W22" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="2" t="e">
+        <f>$Q$43*T22+$R$43</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z22" s="2" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA22" s="2" t="e">
+        <f>Y22+$R$45</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB22" s="2" t="e">
+        <f>Y22-$R$45</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="16:20" x14ac:dyDescent="0.3">
+      <c r="P42" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="11"/>
+      <c r="T42" s="11"/>
+    </row>
+    <row r="43" spans="16:20" x14ac:dyDescent="0.3">
+      <c r="P43" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q43" s="2" t="e">
+        <f t="array" ref="Q43:R45">LINEST(V3:V22,T3:T22,1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R43" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S43" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="T43" s="13"/>
+    </row>
+    <row r="44" spans="16:20" x14ac:dyDescent="0.3">
+      <c r="P44" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q44" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R44" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S44" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="T44" s="13"/>
+    </row>
+    <row r="45" spans="16:20" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="P45" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q45" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R45" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S45" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="T45" s="15"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <mergeCells count="4">
+    <mergeCell ref="P42:T42"/>
+    <mergeCell ref="S43:T43"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="S45:T45"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D31AE4B-C08F-4B4C-A1BF-839103DE97F7}">
+  <dimension ref="A2:AB45"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AF17" sqref="AF17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="12" max="12" width="10" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" customWidth="1"/>
+    <col min="15" max="15" width="8.5546875" customWidth="1"/>
+    <col min="16" max="16" width="10.33203125" customWidth="1"/>
+    <col min="17" max="17" width="13.77734375" customWidth="1"/>
+    <col min="19" max="19" width="10.6640625" customWidth="1"/>
+    <col min="20" max="20" width="10.5546875" customWidth="1"/>
+    <col min="21" max="21" width="8.109375" customWidth="1"/>
+    <col min="23" max="23" width="11.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:28" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>30</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="2" t="e">
+        <f>LOG(B3)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="E3" s="2" t="e">
+        <f>SQRT(((1/B3)*C3)^2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="2" t="e">
+        <f>H3/F3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K3" s="2" t="e">
+        <f>SQRT(((1/F3)*I3)^2+(-(H3/(F3^2))*G3)^2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L3" s="2">
+        <f>1/(SQRT(1+(2*PI()*B3*B24*B25)^2))</f>
+        <v>1</v>
+      </c>
+      <c r="M3" s="7"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="9">
+        <f>2*PI()*B3*O3</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="2">
+        <f>M3*PI()/180</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="2">
+        <f>N3*PI()/180</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="2">
+        <f>B3^2</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="2">
+        <f>SQRT((2*B3*C3)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="V3" s="2" t="e">
+        <f>1/(J3^2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W3" s="2" t="e">
+        <f>SQRT((-(2/(J3^3))*K3)^2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="2" t="e">
+        <f>$Q$43*T3+$R$43</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z3" s="2" t="e">
+        <f>V3-Y3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA3" s="2" t="e">
+        <f>Y3+$R$45</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB3" s="2" t="e">
+        <f>Y3-$R$45</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>50</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="2" t="e">
+        <f t="shared" ref="D4:D22" si="0">LOG(B4)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="E4" s="2" t="e">
+        <f t="shared" ref="E4:E22" si="1">SQRT(((1/B4)*C4)^2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="2" t="e">
+        <f t="shared" ref="J4:J22" si="2">H4/F4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K4" s="2" t="e">
+        <f t="shared" ref="K4:K22" si="3">SQRT(((1/F4)*I4)^2+(-(H4/(F4^2))*G4)^2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L4" s="2">
+        <f>1/(SQRT(1+(2*PI()*B4*B25*B26)^2))</f>
+        <v>1</v>
+      </c>
+      <c r="M4" s="7"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="9">
+        <f t="shared" ref="Q4:Q22" si="4">2*PI()*B4*O4</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="2">
+        <f>M4*PI()/180</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="2">
+        <f t="shared" ref="S4:S22" si="5">N4*PI()/180</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="2">
+        <f>B4^2</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="2">
+        <f t="shared" ref="U4:U22" si="6">SQRT((2*B4*C4)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="V4" s="2" t="e">
+        <f>1/(J4^2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W4" s="2" t="e">
+        <f t="shared" ref="W4:W22" si="7">SQRT((-(2/(J4^3))*K4)^2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="2" t="e">
+        <f>$Q$43*T4+$R$43</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z4" s="2" t="e">
+        <f t="shared" ref="Z4:Z22" si="8">V4-Y4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA4" s="2" t="e">
+        <f>Y4+$R$45</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB4" s="2" t="e">
+        <f>Y4-$R$45</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>100</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E5" s="2" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K5" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L5" s="2">
+        <f>1/(SQRT(1+(2*PI()*B5*B26*X7)^2))</f>
+        <v>1</v>
+      </c>
+      <c r="M5" s="7"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R5" s="2">
+        <f>M5*PI()/180</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T5" s="2">
+        <f>B5^2</f>
+        <v>0</v>
+      </c>
+      <c r="U5" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V5" s="2" t="e">
+        <f>1/(J5^2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W5" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="2" t="e">
+        <f>$Q$43*T5+$R$43</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z5" s="2" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA5" s="2" t="e">
+        <f>Y5+$R$45</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB5" s="2" t="e">
+        <f>Y5-$R$45</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>150</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E6" s="2" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K6" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L6" s="2">
+        <f>1/(SQRT(1+(2*PI()*B6*X7*X8)^2))</f>
+        <v>1</v>
+      </c>
+      <c r="M6" s="7"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="2">
+        <f>M6*PI()/180</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T6" s="2">
+        <f>B6^2</f>
+        <v>0</v>
+      </c>
+      <c r="U6" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V6" s="2" t="e">
+        <f>1/(J6^2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W6" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="2" t="e">
+        <f>$Q$43*T6+$R$43</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z6" s="2" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA6" s="2" t="e">
+        <f>Y6+$R$45</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB6" s="2" t="e">
+        <f>Y6-$R$45</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>160</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E7" s="2" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K7" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L7" s="2">
+        <f>1/(SQRT(1+(2*PI()*B7*X8*X9)^2))</f>
+        <v>1</v>
+      </c>
+      <c r="M7" s="7"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="2">
+        <f>M7*PI()/180</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T7" s="2">
+        <f>B7^2</f>
+        <v>0</v>
+      </c>
+      <c r="U7" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V7" s="2" t="e">
+        <f>1/(J7^2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W7" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="2" t="e">
+        <f>$Q$43*T7+$R$43</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z7" s="2" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA7" s="2" t="e">
+        <f>Y7+$R$45</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB7" s="2" t="e">
+        <f>Y7-$R$45</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>200</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E8" s="2" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K8" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L8" s="2">
+        <f>1/(SQRT(1+(2*PI()*B8*X9*X10)^2))</f>
+        <v>1</v>
+      </c>
+      <c r="M8" s="7"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="2">
+        <f>M8*PI()/180</f>
+        <v>0</v>
+      </c>
+      <c r="S8" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T8" s="2">
+        <f>B8^2</f>
+        <v>0</v>
+      </c>
+      <c r="U8" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V8" s="2" t="e">
+        <f>1/(J8^2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W8" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="2" t="e">
+        <f>$Q$43*T8+$R$43</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z8" s="2" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA8" s="2" t="e">
+        <f>Y8+$R$45</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB8" s="2" t="e">
+        <f>Y8-$R$45</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>250</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E9" s="2" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K9" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L9" s="2">
+        <f>1/(SQRT(1+(2*PI()*B9*X10*X11)^2))</f>
+        <v>1</v>
+      </c>
+      <c r="M9" s="7"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="2">
+        <f>M9*PI()/180</f>
+        <v>0</v>
+      </c>
+      <c r="S9" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T9" s="2">
+        <f>B9^2</f>
+        <v>0</v>
+      </c>
+      <c r="U9" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V9" s="2" t="e">
+        <f>1/(J9^2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W9" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="2" t="e">
+        <f>$Q$43*T9+$R$43</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z9" s="2" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA9" s="2" t="e">
+        <f>Y9+$R$45</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB9" s="2" t="e">
+        <f>Y9-$R$45</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>300</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E10" s="2" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K10" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L10" s="2">
+        <f>1/(SQRT(1+(2*PI()*B10*X11*X12)^2))</f>
+        <v>1</v>
+      </c>
+      <c r="M10" s="7"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="2">
+        <f>M10*PI()/180</f>
+        <v>0</v>
+      </c>
+      <c r="S10" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T10" s="2">
+        <f>B10^2</f>
+        <v>0</v>
+      </c>
+      <c r="U10" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V10" s="2" t="e">
+        <f>1/(J10^2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W10" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="2" t="e">
+        <f>$Q$43*T10+$R$43</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z10" s="2" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA10" s="2" t="e">
+        <f>Y10+$R$45</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB10" s="2" t="e">
+        <f>Y10-$R$45</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>400</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E11" s="2" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K11" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L11" s="2">
+        <f>1/(SQRT(1+(2*PI()*B11*X12*X13)^2))</f>
+        <v>1</v>
+      </c>
+      <c r="M11" s="7"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="2">
+        <f>M11*PI()/180</f>
+        <v>0</v>
+      </c>
+      <c r="S11" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="2">
+        <f>B11^2</f>
+        <v>0</v>
+      </c>
+      <c r="U11" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="2" t="e">
+        <f>1/(J11^2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W11" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="2" t="e">
+        <f>$Q$43*T11+$R$43</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z11" s="2" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA11" s="2" t="e">
+        <f>Y11+$R$45</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB11" s="2" t="e">
+        <f>Y11-$R$45</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>500</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E12" s="2" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K12" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L12" s="2">
+        <f>1/(SQRT(1+(2*PI()*B12*X13*X14)^2))</f>
+        <v>1</v>
+      </c>
+      <c r="M12" s="7"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="2">
+        <f>M12*PI()/180</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="2">
+        <f>B12^2</f>
+        <v>0</v>
+      </c>
+      <c r="U12" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="2" t="e">
+        <f>1/(J12^2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W12" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="2" t="e">
+        <f>$Q$43*T12+$R$43</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z12" s="2" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA12" s="2" t="e">
+        <f>Y12+$R$45</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB12" s="2" t="e">
+        <f>Y12-$R$45</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>750</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E13" s="2" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K13" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L13" s="2">
+        <f>1/(SQRT(1+(2*PI()*B13*X14*X15)^2))</f>
+        <v>1</v>
+      </c>
+      <c r="M13" s="7"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="2">
+        <f>M13*PI()/180</f>
+        <v>0</v>
+      </c>
+      <c r="S13" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="2">
+        <f>B13^2</f>
+        <v>0</v>
+      </c>
+      <c r="U13" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="2" t="e">
+        <f>1/(J13^2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W13" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="2" t="e">
+        <f>$Q$43*T13+$R$43</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z13" s="2" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA13" s="2" t="e">
+        <f>Y13+$R$45</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB13" s="2" t="e">
+        <f>Y13-$R$45</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>1000</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E14" s="2" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K14" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L14" s="2">
+        <f>1/(SQRT(1+(2*PI()*B14*X15*X16)^2))</f>
+        <v>1</v>
+      </c>
+      <c r="M14" s="7"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="2">
+        <f>M14*PI()/180</f>
+        <v>0</v>
+      </c>
+      <c r="S14" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="2">
+        <f>B14^2</f>
+        <v>0</v>
+      </c>
+      <c r="U14" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="2" t="e">
+        <f>1/(J14^2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W14" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="2" t="e">
+        <f>$Q$43*T14+$R$43</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z14" s="2" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA14" s="2" t="e">
+        <f>Y14+$R$45</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB14" s="2" t="e">
+        <f>Y14-$R$45</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>2000</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E15" s="2" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K15" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L15" s="2">
+        <f>1/(SQRT(1+(2*PI()*B15*X16*X17)^2))</f>
+        <v>1</v>
+      </c>
+      <c r="M15" s="7"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="2">
+        <f>M15*PI()/180</f>
+        <v>0</v>
+      </c>
+      <c r="S15" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="2">
+        <f>B15^2</f>
+        <v>0</v>
+      </c>
+      <c r="U15" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V15" s="2" t="e">
+        <f>1/(J15^2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W15" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="2" t="e">
+        <f>$Q$43*T15+$R$43</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z15" s="2" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA15" s="2" t="e">
+        <f>Y15+$R$45</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB15" s="2" t="e">
+        <f>Y15-$R$45</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>5000</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E16" s="2" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K16" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L16" s="2">
+        <f>1/(SQRT(1+(2*PI()*B16*X17*X18)^2))</f>
+        <v>1</v>
+      </c>
+      <c r="M16" s="7"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="2">
+        <f>M16*PI()/180</f>
+        <v>0</v>
+      </c>
+      <c r="S16" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="2">
+        <f>B16^2</f>
+        <v>0</v>
+      </c>
+      <c r="U16" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V16" s="2" t="e">
+        <f>1/(J16^2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W16" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="2" t="e">
+        <f>$Q$43*T16+$R$43</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z16" s="2" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA16" s="2" t="e">
+        <f>Y16+$R$45</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB16" s="2" t="e">
+        <f>Y16-$R$45</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>7500</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E17" s="2" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K17" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L17" s="2">
+        <f>1/(SQRT(1+(2*PI()*B17*X18*X19)^2))</f>
+        <v>1</v>
+      </c>
+      <c r="M17" s="7"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="2">
+        <f>M17*PI()/180</f>
+        <v>0</v>
+      </c>
+      <c r="S17" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="2">
+        <f>B17^2</f>
+        <v>0</v>
+      </c>
+      <c r="U17" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V17" s="2" t="e">
+        <f>1/(J17^2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W17" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="2" t="e">
+        <f>$Q$43*T17+$R$43</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z17" s="2" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA17" s="2" t="e">
+        <f>Y17+$R$45</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB17" s="2" t="e">
+        <f>Y17-$R$45</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>10000</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E18" s="2" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K18" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L18" s="2">
+        <f>1/(SQRT(1+(2*PI()*B18*X19*X20)^2))</f>
+        <v>1</v>
+      </c>
+      <c r="M18" s="7"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="2">
+        <f>M18*PI()/180</f>
+        <v>0</v>
+      </c>
+      <c r="S18" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T18" s="2">
+        <f>B18^2</f>
+        <v>0</v>
+      </c>
+      <c r="U18" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V18" s="2" t="e">
+        <f>1/(J18^2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W18" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="2" t="e">
+        <f>$Q$43*T18+$R$43</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z18" s="2" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA18" s="2" t="e">
+        <f>Y18+$R$45</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB18" s="2" t="e">
+        <f>Y18-$R$45</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>12500</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E19" s="2" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K19" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L19" s="2">
+        <f>1/(SQRT(1+(2*PI()*B19*X20*X21)^2))</f>
+        <v>1</v>
+      </c>
+      <c r="M19" s="7"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="2">
+        <f>M19*PI()/180</f>
+        <v>0</v>
+      </c>
+      <c r="S19" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T19" s="2">
+        <f>B19^2</f>
+        <v>0</v>
+      </c>
+      <c r="U19" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V19" s="2" t="e">
+        <f>1/(J19^2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W19" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="2" t="e">
+        <f>$Q$43*T19+$R$43</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z19" s="2" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA19" s="2" t="e">
+        <f>Y19+$R$45</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB19" s="2" t="e">
+        <f>Y19-$R$45</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>15000</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E20" s="2" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K20" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L20" s="2">
+        <f>1/(SQRT(1+(2*PI()*B20*X21*X22)^2))</f>
+        <v>1</v>
+      </c>
+      <c r="M20" s="7"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="2">
+        <f>M20*PI()/180</f>
+        <v>0</v>
+      </c>
+      <c r="S20" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T20" s="2">
+        <f>B20^2</f>
+        <v>0</v>
+      </c>
+      <c r="U20" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V20" s="2" t="e">
+        <f>1/(J20^2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W20" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="2" t="e">
+        <f>$Q$43*T20+$R$43</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z20" s="2" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA20" s="2" t="e">
+        <f>Y20+$R$45</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB20" s="2" t="e">
+        <f>Y20-$R$45</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>17000</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E21" s="2" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K21" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L21" s="2">
+        <f>1/(SQRT(1+(2*PI()*B21*X22*X23)^2))</f>
+        <v>1</v>
+      </c>
+      <c r="M21" s="7"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="2">
+        <f>M21*PI()/180</f>
+        <v>0</v>
+      </c>
+      <c r="S21" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T21" s="2">
+        <f>B21^2</f>
+        <v>0</v>
+      </c>
+      <c r="U21" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V21" s="2" t="e">
+        <f>1/(J21^2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W21" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="2" t="e">
+        <f>$Q$43*T21+$R$43</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z21" s="2" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA21" s="2" t="e">
+        <f>Y21+$R$45</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB21" s="2" t="e">
+        <f>Y21-$R$45</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>19000</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E22" s="2" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K22" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L22" s="2">
+        <f>1/(SQRT(1+(2*PI()*B22*X23*X24)^2))</f>
+        <v>1</v>
+      </c>
+      <c r="M22" s="7"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="2">
+        <f>M22*PI()/180</f>
+        <v>0</v>
+      </c>
+      <c r="S22" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T22" s="2">
+        <f>B22^2</f>
+        <v>0</v>
+      </c>
+      <c r="U22" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V22" s="2" t="e">
+        <f>1/(J22^2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W22" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="2" t="e">
+        <f>$Q$43*T22+$R$43</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z22" s="2" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA22" s="2" t="e">
+        <f>Y22+$R$45</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB22" s="2" t="e">
+        <f>Y22-$R$45</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="16:20" x14ac:dyDescent="0.3">
+      <c r="P42" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="11"/>
+      <c r="T42" s="11"/>
+    </row>
+    <row r="43" spans="16:20" x14ac:dyDescent="0.3">
+      <c r="P43" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q43" s="2" t="e">
+        <f t="array" ref="Q43:R45">LINEST(V3:V22,T3:T22,1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R43" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S43" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="T43" s="13"/>
+    </row>
+    <row r="44" spans="16:20" x14ac:dyDescent="0.3">
+      <c r="P44" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q44" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R44" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S44" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="T44" s="13"/>
+    </row>
+    <row r="45" spans="16:20" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="P45" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q45" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R45" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S45" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="T45" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="P42:T42"/>
+    <mergeCell ref="S43:T43"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="S45:T45"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>